--- a/SchedulingData/dynamic9/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>259.9</v>
+        <v>233.42</v>
       </c>
       <c r="D2" t="n">
-        <v>317.6</v>
+        <v>289.48</v>
       </c>
       <c r="E2" t="n">
-        <v>10.86</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>317.6</v>
+        <v>203.98</v>
       </c>
       <c r="D3" t="n">
-        <v>362.5</v>
+        <v>259.38</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>14.092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>235.72</v>
+        <v>259.38</v>
       </c>
       <c r="D4" t="n">
-        <v>302.68</v>
+        <v>287.38</v>
       </c>
       <c r="E4" t="n">
-        <v>11.372</v>
+        <v>11.932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>253.96</v>
+        <v>227.92</v>
       </c>
       <c r="D5" t="n">
-        <v>314.64</v>
+        <v>287.1</v>
       </c>
       <c r="E5" t="n">
-        <v>11.176</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="6">
@@ -542,150 +542,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>250.22</v>
+        <v>229.44</v>
       </c>
       <c r="D6" t="n">
-        <v>296.98</v>
+        <v>270.6</v>
       </c>
       <c r="E6" t="n">
-        <v>9.472</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>218.78</v>
+        <v>289.48</v>
       </c>
       <c r="D7" t="n">
-        <v>273.48</v>
+        <v>344.08</v>
       </c>
       <c r="E7" t="n">
-        <v>12.292</v>
+        <v>8.832000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>232.96</v>
+        <v>270.6</v>
       </c>
       <c r="D8" t="n">
-        <v>283.28</v>
+        <v>314.46</v>
       </c>
       <c r="E8" t="n">
-        <v>14.812</v>
+        <v>8.843999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>296.98</v>
+        <v>220.58</v>
       </c>
       <c r="D9" t="n">
-        <v>360.54</v>
+        <v>277.14</v>
       </c>
       <c r="E9" t="n">
-        <v>6.716</v>
+        <v>11.476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>302.68</v>
+        <v>277.14</v>
       </c>
       <c r="D10" t="n">
-        <v>349.7</v>
+        <v>335.34</v>
       </c>
       <c r="E10" t="n">
-        <v>8.779999999999999</v>
+        <v>9.236000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>283.28</v>
+        <v>314.46</v>
       </c>
       <c r="D11" t="n">
-        <v>348.68</v>
+        <v>379.16</v>
       </c>
       <c r="E11" t="n">
-        <v>12.392</v>
+        <v>5.004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>314.64</v>
+        <v>287.1</v>
       </c>
       <c r="D12" t="n">
-        <v>364.02</v>
+        <v>339.02</v>
       </c>
       <c r="E12" t="n">
-        <v>8.368</v>
+        <v>9.368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>273.48</v>
+        <v>379.16</v>
       </c>
       <c r="D13" t="n">
-        <v>307.18</v>
+        <v>437.1</v>
       </c>
       <c r="E13" t="n">
-        <v>10.052</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14">
@@ -694,74 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>364.02</v>
+        <v>335.34</v>
       </c>
       <c r="D14" t="n">
-        <v>411.82</v>
+        <v>380.34</v>
       </c>
       <c r="E14" t="n">
-        <v>6.208</v>
+        <v>6.376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>362.5</v>
+        <v>380.34</v>
       </c>
       <c r="D15" t="n">
-        <v>435.34</v>
+        <v>427.24</v>
       </c>
       <c r="E15" t="n">
-        <v>5.296</v>
+        <v>3.316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>349.7</v>
+        <v>339.02</v>
       </c>
       <c r="D16" t="n">
-        <v>411.2</v>
+        <v>414.24</v>
       </c>
       <c r="E16" t="n">
-        <v>5.72</v>
+        <v>6.456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>307.18</v>
+        <v>287.38</v>
       </c>
       <c r="D17" t="n">
-        <v>375.7</v>
+        <v>328.36</v>
       </c>
       <c r="E17" t="n">
-        <v>6.3</v>
+        <v>8.964</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pond5</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>344.08</v>
+      </c>
+      <c r="D18" t="n">
+        <v>393.26</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.024</v>
       </c>
     </row>
   </sheetData>
